--- a/Graphing mics.xlsx
+++ b/Graphing mics.xlsx
@@ -104,6 +104,300 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="382"/>
+                <c:pt idx="1">
+                  <c:v>55.87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.290000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.88</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.49</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58.33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.53</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>79.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>68.64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>54.15</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>78.67</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>77.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>76.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>55.57</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>54.79</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.52</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.37</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53.27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.52</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.64</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.04</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.01</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.69</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54.35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54.34</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>54.95</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.91</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>55.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53.21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53.55</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>53.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>54.93</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.55</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>53.16</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>55.55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>52.46</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>54.94</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52.87</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>54.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>55.67</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56.07</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>51.61</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54.02</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>53.59</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>55.04</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>54.23</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>53.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>54.03</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53.23</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>55.06</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>53.54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>53.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>53.96</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>52.75</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>55.04</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>52.35</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.08</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>53.06</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>53.64</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>54.51</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>50.59</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>54.24</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>51.88</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>53.85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -118,11 +412,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236578496"/>
-        <c:axId val="236571440"/>
+        <c:axId val="230819808"/>
+        <c:axId val="230820592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236578496"/>
+        <c:axId val="230819808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -131,7 +425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236571440"/>
+        <c:crossAx val="230820592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -139,7 +433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236571440"/>
+        <c:axId val="230820592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -150,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236578496"/>
+        <c:crossAx val="230819808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -208,298 +502,298 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>386366.97705406969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>201372.4249862392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>219785.98727848291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>264240.87573219498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>311171.63371060212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>391741.87710778386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>225423.92121524311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>26853444.45658515</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>6266138.646723357</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>11776059.735208081</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1233104.8332289082</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>256448.40365177242</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>483058.80203977355</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>52722986.142282397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>48752849.010338619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>29648313.895243458</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>405508.53544838383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>445656.24839750346</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>922571.42715476465</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>680769.35869374243</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>283791.90284415608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>134276496.11378673</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>184926861.89780793</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>197242273.61148587</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>96605087.898981526</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>91411324.147025287</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>7311390.8348341836</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>260015.95631652759</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>409260.65973001131</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>73620709.749473676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>55847019.473683193</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>50003453.497697867</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>314050.86938762187</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>288403.1503126609</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>360578.64302164299</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>301300.60241861275</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>255858.58869056462</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>439541.61543782515</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>356451.13342624484</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>217270.1178863745</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>212324.44620002201</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>356451.13342624484</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>323593.65692962846</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>211348.90398366519</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>448745.38993313245</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>252348.07724805782</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>291071.71180666116</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>257039.57827688678</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>201372.4249862392</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>251767.69277588572</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1</c:v>
+                  <c:v>218776.16239495538</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1</c:v>
+                  <c:v>371535.2290971732</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>233883.72386593578</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1</c:v>
+                  <c:v>272270.13080779207</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>301995.1720402019</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>271643.92688390845</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>312607.93671239575</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1</c:v>
+                  <c:v>195433.94557753945</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>362242.99841669906</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>209411.24558508955</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>226464.43075930604</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>218776.16239495538</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>311171.63371060212</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>285101.82675039128</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>207014.1348791045</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1</c:v>
+                  <c:v>358921.93464500527</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1</c:v>
+                  <c:v>176197.60464116329</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
+                  <c:v>311888.95840939373</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1</c:v>
+                  <c:v>208929.61308540447</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>193642.19639466083</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1</c:v>
+                  <c:v>295801.24665515509</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>368977.59857015091</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1</c:v>
+                  <c:v>404575.89169744315</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1</c:v>
+                  <c:v>144877.18535447607</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1</c:v>
+                  <c:v>252348.07724805782</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1</c:v>
+                  <c:v>228559.88033754332</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>319153.78551007615</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1</c:v>
+                  <c:v>264850.01386067056</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1</c:v>
+                  <c:v>209411.24558508955</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1</c:v>
+                  <c:v>252929.79964461498</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1</c:v>
+                  <c:v>210377.84397664739</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1</c:v>
+                  <c:v>320626.932450547</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1</c:v>
+                  <c:v>225943.57702209809</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1</c:v>
+                  <c:v>270395.83641088515</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1</c:v>
+                  <c:v>248885.73182823925</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1</c:v>
+                  <c:v>204173.79446695346</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1</c:v>
+                  <c:v>248885.73182823925</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1</c:v>
+                  <c:v>188364.90894898027</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1</c:v>
+                  <c:v>319153.78551007615</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1</c:v>
+                  <c:v>171790.83871575908</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1</c:v>
+                  <c:v>322106.87912834377</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1</c:v>
+                  <c:v>202301.91786782746</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1</c:v>
+                  <c:v>231206.47901755979</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1</c:v>
+                  <c:v>282487.99749157077</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1</c:v>
+                  <c:v>114551.29414455364</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1</c:v>
+                  <c:v>265460.55619755463</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1</c:v>
+                  <c:v>154170.0452949563</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1</c:v>
+                  <c:v>242661.00950824158</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1</c:v>
@@ -1280,11 +1574,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236573400"/>
-        <c:axId val="236574968"/>
+        <c:axId val="230822944"/>
+        <c:axId val="230821376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236573400"/>
+        <c:axId val="230822944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236574968"/>
+        <c:crossAx val="230821376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236574968"/>
+        <c:axId val="230821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,14 +1606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236573400"/>
+        <c:crossAx val="230822944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5622,11 +5915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236575360"/>
-        <c:axId val="236576536"/>
+        <c:axId val="233051968"/>
+        <c:axId val="233049616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236575360"/>
+        <c:axId val="233051968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236576536"/>
+        <c:crossAx val="233049616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5643,7 +5936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="236576536"/>
+        <c:axId val="233049616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5654,7 +5947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="236575360"/>
+        <c:crossAx val="233051968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16757,11 +17050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="236577320"/>
-        <c:axId val="239218880"/>
+        <c:axId val="233051576"/>
+        <c:axId val="233046872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="236577320"/>
+        <c:axId val="233051576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16803,7 +17096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239218880"/>
+        <c:crossAx val="233046872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16811,7 +17104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="239218880"/>
+        <c:axId val="233046872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16862,7 +17155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236577320"/>
+        <c:crossAx val="233051576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17879,24 +18172,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J3664"/>
+  <dimension ref="A1:J3664"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <f>10^(A1/10)</f>
         <v>1</v>
       </c>
       <c r="G1">
         <f>10*LOG(SUM(B:B)/COUNT(B:B))</f>
-        <v>0</v>
+        <v>62.630549794222873</v>
       </c>
       <c r="H1">
         <f>AVERAGE(B:B)</f>
-        <v>1</v>
+        <v>1832546.398528893</v>
       </c>
       <c r="I1">
         <f>AVERAGE(C:C)</f>
@@ -17907,10 +18200,13 @@
         <v>0.38505596505596446</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55.87</v>
+      </c>
       <c r="B2" s="1">
         <f>10^(A2/10)</f>
-        <v>1</v>
+        <v>386366.97705406969</v>
       </c>
       <c r="C2">
         <v>2.2599999999999998</v>
@@ -17921,14 +18217,17 @@
       </c>
       <c r="F2">
         <f>MAX(A:A)</f>
-        <v>0</v>
+        <v>82.95</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>53.04</v>
+      </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B66" si="0">10^(A3/10)</f>
-        <v>1</v>
+        <v>201372.4249862392</v>
       </c>
       <c r="C3">
         <v>3.4</v>
@@ -17946,10 +18245,13 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>53.42</v>
+      </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>219785.98727848291</v>
       </c>
       <c r="C4">
         <v>2.88</v>
@@ -17958,9 +18260,9 @@
         <f t="shared" si="1"/>
         <v>0.37999999999999989</v>
       </c>
-      <c r="G4" t="e">
+      <c r="G4">
         <f>AVERAGE(A:A)</f>
-        <v>#DIV/0!</v>
+        <v>57.844285714285718</v>
       </c>
       <c r="H4">
         <f>MIN(C:C)</f>
@@ -17971,10 +18273,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>54.22</v>
+      </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>264240.87573219498</v>
       </c>
       <c r="C5">
         <v>2.23</v>
@@ -17992,10 +18297,13 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54.93</v>
+      </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>311171.63371060212</v>
       </c>
       <c r="C6">
         <v>2.19</v>
@@ -18005,10 +18313,13 @@
         <v>0.31000000000000005</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>55.93</v>
+      </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>391741.87710778386</v>
       </c>
       <c r="C7">
         <v>2.2200000000000002</v>
@@ -18018,10 +18329,13 @@
         <v>0.2799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>53.53</v>
+      </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>225423.92121524311</v>
       </c>
       <c r="C8">
         <v>2.82</v>
@@ -18031,10 +18345,13 @@
         <v>0.31999999999999984</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>74.290000000000006</v>
+      </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26853444.45658515</v>
       </c>
       <c r="C9">
         <v>1.91</v>
@@ -18044,10 +18361,13 @@
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>67.97</v>
+      </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6266138.646723357</v>
       </c>
       <c r="C10">
         <v>2.57</v>
@@ -18057,10 +18377,13 @@
         <v>6.999999999999984E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70.709999999999994</v>
+      </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11776059.735208081</v>
       </c>
       <c r="C11">
         <v>3.03</v>
@@ -18070,10 +18393,13 @@
         <v>0.5299999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>60.91</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1233104.8332289082</v>
       </c>
       <c r="C12">
         <v>2.74</v>
@@ -18083,10 +18409,13 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>54.09</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>256448.40365177242</v>
       </c>
       <c r="C13">
         <v>2.23</v>
@@ -18099,10 +18428,13 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>56.84</v>
+      </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>483058.80203977355</v>
       </c>
       <c r="C14">
         <v>3.5</v>
@@ -18112,10 +18444,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>77.22</v>
+      </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>52722986.142282397</v>
       </c>
       <c r="C15">
         <v>2.34</v>
@@ -18125,10 +18460,13 @@
         <v>0.16000000000000014</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>76.88</v>
+      </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>48752849.010338619</v>
       </c>
       <c r="C16">
         <v>2.77</v>
@@ -18138,10 +18476,13 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>74.72</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29648313.895243458</v>
       </c>
       <c r="C17">
         <v>2.0699999999999998</v>
@@ -18151,10 +18492,13 @@
         <v>0.43000000000000016</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>56.08</v>
+      </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>405508.53544838383</v>
       </c>
       <c r="C18">
         <v>2.91</v>
@@ -18164,10 +18508,13 @@
         <v>0.41000000000000014</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>56.49</v>
+      </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>445656.24839750346</v>
       </c>
       <c r="C19">
         <v>2.4300000000000002</v>
@@ -18177,10 +18524,13 @@
         <v>6.999999999999984E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>59.65</v>
+      </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>922571.42715476465</v>
       </c>
       <c r="C20">
         <v>1.94</v>
@@ -18190,10 +18540,13 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>58.33</v>
+      </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>680769.35869374243</v>
       </c>
       <c r="C21">
         <v>3.23</v>
@@ -18203,10 +18556,13 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>54.53</v>
+      </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>283791.90284415608</v>
       </c>
       <c r="C22">
         <v>2.39</v>
@@ -18216,10 +18572,13 @@
         <v>0.10999999999999988</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81.28</v>
+      </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>134276496.11378673</v>
       </c>
       <c r="C23">
         <v>2.93</v>
@@ -18229,10 +18588,13 @@
         <v>0.43000000000000016</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>82.67</v>
+      </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>184926861.89780793</v>
       </c>
       <c r="C24">
         <v>2.4500000000000002</v>
@@ -18242,10 +18604,13 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>82.95</v>
+      </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>197242273.61148587</v>
       </c>
       <c r="C25">
         <v>3.46</v>
@@ -18255,10 +18620,13 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>79.849999999999994</v>
+      </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>96605087.898981526</v>
       </c>
       <c r="C26">
         <v>2.52</v>
@@ -18268,10 +18636,13 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>79.61</v>
+      </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>91411324.147025287</v>
       </c>
       <c r="C27">
         <v>3.67</v>
@@ -18281,10 +18652,13 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>68.64</v>
+      </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7311390.8348341836</v>
       </c>
       <c r="C28">
         <v>1.88</v>
@@ -18294,10 +18668,13 @@
         <v>0.62000000000000011</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>54.15</v>
+      </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>260015.95631652759</v>
       </c>
       <c r="C29">
         <v>2.31</v>
@@ -18307,10 +18684,13 @@
         <v>0.18999999999999995</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>56.12</v>
+      </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>409260.65973001131</v>
       </c>
       <c r="C30">
         <v>2.62</v>
@@ -18320,10 +18700,13 @@
         <v>0.12000000000000011</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>78.67</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>73620709.749473676</v>
       </c>
       <c r="C31">
         <v>2.2799999999999998</v>
@@ -18333,10 +18716,13 @@
         <v>0.2200000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>77.47</v>
+      </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>55847019.473683193</v>
       </c>
       <c r="C32">
         <v>2.61</v>
@@ -18346,10 +18732,13 @@
         <v>0.10999999999999988</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>76.989999999999995</v>
+      </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>50003453.497697867</v>
       </c>
       <c r="C33">
         <v>2.1</v>
@@ -18359,10 +18748,13 @@
         <v>0.39999999999999991</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>54.97</v>
+      </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>314050.86938762187</v>
       </c>
       <c r="C34">
         <v>2.71</v>
@@ -18372,10 +18764,13 @@
         <v>0.20999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>54.6</v>
+      </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>288403.1503126609</v>
       </c>
       <c r="C35">
         <v>2.92</v>
@@ -18385,10 +18780,13 @@
         <v>0.41999999999999993</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>55.57</v>
+      </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>360578.64302164299</v>
       </c>
       <c r="C36">
         <v>2.95</v>
@@ -18398,10 +18796,13 @@
         <v>0.45000000000000018</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>54.79</v>
+      </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301300.60241861275</v>
       </c>
       <c r="C37">
         <v>2.7</v>
@@ -18411,10 +18812,13 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>54.08</v>
+      </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>255858.58869056462</v>
       </c>
       <c r="C38">
         <v>2.19</v>
@@ -18424,10 +18828,13 @@
         <v>0.31000000000000005</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>56.43</v>
+      </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>439541.61543782515</v>
       </c>
       <c r="C39">
         <v>3.55</v>
@@ -18437,10 +18844,13 @@
         <v>1.0499999999999998</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>55.52</v>
+      </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>356451.13342624484</v>
       </c>
       <c r="C40">
         <v>2.41</v>
@@ -18450,10 +18860,13 @@
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>53.37</v>
+      </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>217270.1178863745</v>
       </c>
       <c r="C41">
         <v>2.0299999999999998</v>
@@ -18463,10 +18876,13 @@
         <v>0.4700000000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>53.27</v>
+      </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>212324.44620002201</v>
       </c>
       <c r="C42">
         <v>3.08</v>
@@ -18476,10 +18892,13 @@
         <v>0.58000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>55.52</v>
+      </c>
       <c r="B43" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>356451.13342624484</v>
       </c>
       <c r="C43">
         <v>2.79</v>
@@ -18489,10 +18908,13 @@
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>55.1</v>
+      </c>
       <c r="B44" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>323593.65692962846</v>
       </c>
       <c r="C44">
         <v>1.75</v>
@@ -18502,10 +18924,13 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>53.25</v>
+      </c>
       <c r="B45" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>211348.90398366519</v>
       </c>
       <c r="C45">
         <v>2.81</v>
@@ -18515,10 +18940,13 @@
         <v>0.31000000000000005</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>56.52</v>
+      </c>
       <c r="B46" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>448745.38993313245</v>
       </c>
       <c r="C46">
         <v>2.06</v>
@@ -18528,10 +18956,13 @@
         <v>0.43999999999999995</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>54.02</v>
+      </c>
       <c r="B47" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>252348.07724805782</v>
       </c>
       <c r="C47">
         <v>2.93</v>
@@ -18541,10 +18972,13 @@
         <v>0.43000000000000016</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>54.64</v>
+      </c>
       <c r="B48" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>291071.71180666116</v>
       </c>
       <c r="C48">
         <v>2.7</v>
@@ -18554,10 +18988,13 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>54.1</v>
+      </c>
       <c r="B49" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>257039.57827688678</v>
       </c>
       <c r="C49">
         <v>2.63</v>
@@ -18567,10 +19004,13 @@
         <v>0.12999999999999989</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>53.04</v>
+      </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>201372.4249862392</v>
       </c>
       <c r="C50">
         <v>2.25</v>
@@ -18580,10 +19020,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>54.01</v>
+      </c>
       <c r="B51" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>251767.69277588572</v>
       </c>
       <c r="C51">
         <v>2.93</v>
@@ -18593,10 +19036,13 @@
         <v>0.43000000000000016</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53.4</v>
+      </c>
       <c r="B52" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>218776.16239495538</v>
       </c>
       <c r="C52">
         <v>3.27</v>
@@ -18606,10 +19052,13 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>55.7</v>
+      </c>
       <c r="B53" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>371535.2290971732</v>
       </c>
       <c r="C53">
         <v>1.36</v>
@@ -18619,10 +19068,13 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53.69</v>
+      </c>
       <c r="B54" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>233883.72386593578</v>
       </c>
       <c r="C54">
         <v>2.72</v>
@@ -18632,10 +19084,13 @@
         <v>0.2200000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54.35</v>
+      </c>
       <c r="B55" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>272270.13080779207</v>
       </c>
       <c r="C55">
         <v>2.85</v>
@@ -18645,10 +19100,13 @@
         <v>0.35000000000000009</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54.8</v>
+      </c>
       <c r="B56" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>301995.1720402019</v>
       </c>
       <c r="C56">
         <v>2.77</v>
@@ -18658,10 +19116,13 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54.34</v>
+      </c>
       <c r="B57" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>271643.92688390845</v>
       </c>
       <c r="C57">
         <v>1.76</v>
@@ -18671,10 +19132,13 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>54.95</v>
+      </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>312607.93671239575</v>
       </c>
       <c r="C58">
         <v>2.85</v>
@@ -18684,10 +19148,13 @@
         <v>0.35000000000000009</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>52.91</v>
+      </c>
       <c r="B59" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>195433.94557753945</v>
       </c>
       <c r="C59">
         <v>2.1800000000000002</v>
@@ -18697,10 +19164,13 @@
         <v>0.31999999999999984</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>55.59</v>
+      </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>362242.99841669906</v>
       </c>
       <c r="C60">
         <v>2.94</v>
@@ -18710,10 +19180,13 @@
         <v>0.43999999999999995</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>53.21</v>
+      </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>209411.24558508955</v>
       </c>
       <c r="C61">
         <v>2.08</v>
@@ -18723,10 +19196,13 @@
         <v>0.41999999999999993</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>53.55</v>
+      </c>
       <c r="B62" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>226464.43075930604</v>
       </c>
       <c r="C62">
         <v>2.89</v>
@@ -18736,10 +19212,13 @@
         <v>0.39000000000000012</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>53.4</v>
+      </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>218776.16239495538</v>
       </c>
       <c r="C63">
         <v>2.41</v>
@@ -18749,10 +19228,13 @@
         <v>8.9999999999999858E-2</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>54.93</v>
+      </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>311171.63371060212</v>
       </c>
       <c r="C64">
         <v>3.35</v>
@@ -18762,10 +19244,13 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>54.55</v>
+      </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>285101.82675039128</v>
       </c>
       <c r="C65">
         <v>2.0699999999999998</v>
@@ -18775,10 +19260,13 @@
         <v>0.43000000000000016</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>53.16</v>
+      </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>207014.1348791045</v>
       </c>
       <c r="C66">
         <v>2.85</v>
@@ -18788,10 +19276,13 @@
         <v>0.35000000000000009</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>55.55</v>
+      </c>
       <c r="B67" s="1">
         <f t="shared" ref="B67:B130" si="2">10^(A67/10)</f>
-        <v>1</v>
+        <v>358921.93464500527</v>
       </c>
       <c r="C67">
         <v>2.04</v>
@@ -18801,10 +19292,13 @@
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>52.46</v>
+      </c>
       <c r="B68" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>176197.60464116329</v>
       </c>
       <c r="C68">
         <v>1.51</v>
@@ -18814,10 +19308,13 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>54.94</v>
+      </c>
       <c r="B69" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>311888.95840939373</v>
       </c>
       <c r="C69">
         <v>2.98</v>
@@ -18827,10 +19324,13 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>53.2</v>
+      </c>
       <c r="B70" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>208929.61308540447</v>
       </c>
       <c r="C70">
         <v>2.57</v>
@@ -18840,10 +19340,13 @@
         <v>6.999999999999984E-2</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>52.87</v>
+      </c>
       <c r="B71" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>193642.19639466083</v>
       </c>
       <c r="C71">
         <v>3.41</v>
@@ -18853,10 +19356,13 @@
         <v>0.91000000000000014</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>54.71</v>
+      </c>
       <c r="B72" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>295801.24665515509</v>
       </c>
       <c r="C72">
         <v>2.92</v>
@@ -18866,10 +19372,13 @@
         <v>0.41999999999999993</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>55.67</v>
+      </c>
       <c r="B73" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>368977.59857015091</v>
       </c>
       <c r="C73">
         <v>1.98</v>
@@ -18879,10 +19388,13 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>56.07</v>
+      </c>
       <c r="B74" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>404575.89169744315</v>
       </c>
       <c r="C74">
         <v>2.0099999999999998</v>
@@ -18892,10 +19404,13 @@
         <v>0.49000000000000021</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>51.61</v>
+      </c>
       <c r="B75" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>144877.18535447607</v>
       </c>
       <c r="C75">
         <v>2.6</v>
@@ -18905,10 +19420,13 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>54.02</v>
+      </c>
       <c r="B76" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>252348.07724805782</v>
       </c>
       <c r="C76">
         <v>1.85</v>
@@ -18918,10 +19436,13 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>53.59</v>
+      </c>
       <c r="B77" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>228559.88033754332</v>
       </c>
       <c r="C77">
         <v>1.76</v>
@@ -18931,10 +19452,13 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>55.04</v>
+      </c>
       <c r="B78" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>319153.78551007615</v>
       </c>
       <c r="C78">
         <v>2.52</v>
@@ -18944,10 +19468,13 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>54.23</v>
+      </c>
       <c r="B79" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>264850.01386067056</v>
       </c>
       <c r="C79">
         <v>2.54</v>
@@ -18957,10 +19484,13 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>53.21</v>
+      </c>
       <c r="B80" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>209411.24558508955</v>
       </c>
       <c r="C80">
         <v>2.2200000000000002</v>
@@ -18970,10 +19500,13 @@
         <v>0.2799999999999998</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>54.03</v>
+      </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>252929.79964461498</v>
       </c>
       <c r="C81">
         <v>3.15</v>
@@ -18983,10 +19516,13 @@
         <v>0.64999999999999991</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>53.23</v>
+      </c>
       <c r="B82" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>210377.84397664739</v>
       </c>
       <c r="C82">
         <v>2.5499999999999998</v>
@@ -18996,10 +19532,13 @@
         <v>4.9999999999999822E-2</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>55.06</v>
+      </c>
       <c r="B83" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>320626.932450547</v>
       </c>
       <c r="C83">
         <v>2.82</v>
@@ -19009,10 +19548,13 @@
         <v>0.31999999999999984</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>53.54</v>
+      </c>
       <c r="B84" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>225943.57702209809</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -19022,10 +19564,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>54.32</v>
+      </c>
       <c r="B85" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>270395.83641088515</v>
       </c>
       <c r="C85">
         <v>3.2</v>
@@ -19035,10 +19580,13 @@
         <v>0.70000000000000018</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>53.96</v>
+      </c>
       <c r="B86" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>248885.73182823925</v>
       </c>
       <c r="C86">
         <v>3.03</v>
@@ -19048,10 +19596,13 @@
         <v>0.5299999999999998</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>53.1</v>
+      </c>
       <c r="B87" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>204173.79446695346</v>
       </c>
       <c r="C87">
         <v>2.2999999999999998</v>
@@ -19061,10 +19612,13 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>53.96</v>
+      </c>
       <c r="B88" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>248885.73182823925</v>
       </c>
       <c r="C88">
         <v>2.52</v>
@@ -19074,10 +19628,13 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>52.75</v>
+      </c>
       <c r="B89" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>188364.90894898027</v>
       </c>
       <c r="C89">
         <v>2.95</v>
@@ -19087,10 +19644,13 @@
         <v>0.45000000000000018</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>55.04</v>
+      </c>
       <c r="B90" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>319153.78551007615</v>
       </c>
       <c r="C90">
         <v>2.5</v>
@@ -19100,10 +19660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>52.35</v>
+      </c>
       <c r="B91" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>171790.83871575908</v>
       </c>
       <c r="C91">
         <v>2.61</v>
@@ -19113,10 +19676,13 @@
         <v>0.10999999999999988</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>55.08</v>
+      </c>
       <c r="B92" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>322106.87912834377</v>
       </c>
       <c r="C92">
         <v>2.78</v>
@@ -19126,10 +19692,13 @@
         <v>0.2799999999999998</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>53.06</v>
+      </c>
       <c r="B93" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>202301.91786782746</v>
       </c>
       <c r="C93">
         <v>1.4</v>
@@ -19139,10 +19708,13 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>53.64</v>
+      </c>
       <c r="B94" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>231206.47901755979</v>
       </c>
       <c r="C94">
         <v>2.8</v>
@@ -19152,10 +19724,13 @@
         <v>0.29999999999999982</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>54.51</v>
+      </c>
       <c r="B95" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>282487.99749157077</v>
       </c>
       <c r="C95">
         <v>1.41</v>
@@ -19165,10 +19740,13 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>50.59</v>
+      </c>
       <c r="B96" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>114551.29414455364</v>
       </c>
       <c r="C96">
         <v>2.64</v>
@@ -19178,10 +19756,13 @@
         <v>0.14000000000000012</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>54.24</v>
+      </c>
       <c r="B97" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>265460.55619755463</v>
       </c>
       <c r="C97">
         <v>1.71</v>
@@ -19191,10 +19772,13 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>51.88</v>
+      </c>
       <c r="B98" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>154170.0452949563</v>
       </c>
       <c r="C98">
         <v>2.46</v>
@@ -19204,10 +19788,13 @@
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>53.85</v>
+      </c>
       <c r="B99" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>242661.00950824158</v>
       </c>
       <c r="C99">
         <v>1.99</v>
@@ -19217,7 +19804,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19230,7 +19817,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19243,7 +19830,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19256,7 +19843,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19269,7 +19856,7 @@
         <v>0.66999999999999993</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19282,7 +19869,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19295,7 +19882,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19308,7 +19895,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19321,7 +19908,7 @@
         <v>0.35999999999999988</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19334,7 +19921,7 @@
         <v>6.999999999999984E-2</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19347,7 +19934,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19360,7 +19947,7 @@
         <v>0.24000000000000021</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -19373,7 +19960,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
